--- a/PCS_App_activity.xlsx
+++ b/PCS_App_activity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -54,13 +54,37 @@
   </si>
   <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>DataBase</t>
+  </si>
+  <si>
+    <t>DB Created</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding </t>
+  </si>
+  <si>
+    <t>Progressing</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +92,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +129,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,54 +456,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44153</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44153</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/PCS_App_activity.xlsx
+++ b/PCS_App_activity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -71,13 +71,10 @@
     <t>DONE</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding </t>
-  </si>
-  <si>
-    <t>Progressing</t>
-  </si>
-  <si>
-    <t>Not Completed</t>
+    <t>Model Package</t>
+  </si>
+  <si>
+    <t>Creation of classes</t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +108,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,15 +156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,15 +441,15 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
@@ -552,34 +534,34 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>44153</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6">
         <v>44153</v>
       </c>
     </row>

--- a/PCS_App_activity.xlsx
+++ b/PCS_App_activity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Creation of classes</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -156,6 +171,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +465,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,16 +590,36 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44154</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="9">
+        <v>44154</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>

--- a/PCS_App_activity.xlsx
+++ b/PCS_App_activity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -77,13 +77,16 @@
     <t>Creation of classes</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>PROCESSING</t>
+    <t>DAO Package</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>all package</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,15 +168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +453,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,48 +578,68 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>44154</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44155</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>44155</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/PCS_App_activity.xlsx
+++ b/PCS_App_activity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>all package</t>
+  </si>
+  <si>
+    <t>complete employee controller</t>
+  </si>
+  <si>
+    <t>job and skill controller</t>
+  </si>
+  <si>
+    <t>PROGRESSING</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -168,6 +183,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +477,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,28 +666,68 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44156</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6">
+        <v>44156</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44156</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9">
+        <v>44156</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
